--- a/day_6/pandas_01_day6.xlsx
+++ b/day_6/pandas_01_day6.xlsx
@@ -126,7 +126,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,7 +951,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75">
       <c r="A47" s="5">
-        <v>167</v>
+        <v>5.6</v>
       </c>
       <c r="B47" s="5">
         <v>60</v>
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="4">
         <v>5.1</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="1">
         <v>5.9</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="4">
         <v>5.2</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="5">
         <v>6</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="4">
         <v>5.5</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="4">
         <v>5.11</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="4">
         <v>5.2</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="15.75">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="1">
         <v>5</v>
       </c>
@@ -1171,7 +1171,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="5">
-        <v>178</v>
+        <v>6.2</v>
       </c>
       <c r="B67" s="5">
         <v>70</v>
